--- a/Documentation/gantt-chart.xlsx
+++ b/Documentation/gantt-chart.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\EECS448\project3\Project3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\EECS448\project3\Project3\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <workbookProtection workbookPassword="AE69" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8145"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
   <sheets>
     <sheet name="GanttChart" sheetId="9" r:id="rId1"/>
@@ -413,7 +413,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="172">
   <si>
     <t>Project Lead:</t>
   </si>
@@ -1134,9 +1134,6 @@
   </si>
   <si>
     <t>Base Health</t>
-  </si>
-  <si>
-    <t>Turrets</t>
   </si>
   <si>
     <t>Multiple Lanes</t>
@@ -2329,16 +2326,13 @@
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
@@ -2356,11 +2350,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="34" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="38" fillId="23" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="166" fontId="12" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="23" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="44">
@@ -2409,45 +2406,7 @@
     <cellStyle name="Total" xfId="42" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="43" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="29">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
+  <dxfs count="7">
     <dxf>
       <fill>
         <patternFill>
@@ -2514,177 +2473,6 @@
           <bgColor theme="5"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2793,7 +2581,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2877,7 +2665,7 @@
         <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000004000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2932,7 +2720,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2976,7 +2764,7 @@
         <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000004000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3031,7 +2819,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3356,11 +3144,11 @@
   <sheetPr codeName="Sheet8">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BN70"/>
+  <dimension ref="A1:BN65"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AL40" sqref="AL40"/>
+      <selection pane="bottomLeft" activeCell="AS6" sqref="AS6:AY6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3396,37 +3184,37 @@
       <c r="B2" s="53"/>
       <c r="C2" s="53"/>
       <c r="D2" s="132"/>
-      <c r="E2" s="135"/>
-      <c r="F2" s="135"/>
+      <c r="E2" s="133"/>
+      <c r="F2" s="133"/>
       <c r="H2" s="2"/>
-      <c r="J2" s="140" t="s">
+      <c r="J2" s="139" t="s">
         <v>143</v>
       </c>
-      <c r="K2" s="140"/>
-      <c r="L2" s="140"/>
-      <c r="M2" s="140"/>
-      <c r="N2" s="140"/>
-      <c r="O2" s="140"/>
-      <c r="P2" s="140"/>
-      <c r="Q2" s="140"/>
-      <c r="R2" s="140"/>
-      <c r="S2" s="140"/>
-      <c r="T2" s="140"/>
-      <c r="U2" s="140"/>
-      <c r="V2" s="140"/>
-      <c r="W2" s="140"/>
-      <c r="X2" s="140"/>
-      <c r="Y2" s="140"/>
-      <c r="Z2" s="140"/>
+      <c r="K2" s="139"/>
+      <c r="L2" s="139"/>
+      <c r="M2" s="139"/>
+      <c r="N2" s="139"/>
+      <c r="O2" s="139"/>
+      <c r="P2" s="139"/>
+      <c r="Q2" s="139"/>
+      <c r="R2" s="139"/>
+      <c r="S2" s="139"/>
+      <c r="T2" s="139"/>
+      <c r="U2" s="139"/>
+      <c r="V2" s="139"/>
+      <c r="W2" s="139"/>
+      <c r="X2" s="139"/>
+      <c r="Y2" s="139"/>
+      <c r="Z2" s="139"/>
     </row>
     <row r="3" spans="1:66" x14ac:dyDescent="0.2">
-      <c r="B3" s="137" t="s">
+      <c r="B3" s="136" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="137"/>
-      <c r="D3" s="137"/>
-      <c r="E3" s="138"/>
-      <c r="F3" s="138"/>
+      <c r="C3" s="136"/>
+      <c r="D3" s="136"/>
+      <c r="E3" s="137"/>
+      <c r="F3" s="137"/>
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
       <c r="I3" s="8"/>
@@ -3487,15 +3275,15 @@
       <c r="BM3" s="8"/>
     </row>
     <row r="4" spans="1:66" x14ac:dyDescent="0.2">
-      <c r="B4" s="137" t="s">
+      <c r="B4" s="136" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="137"/>
-      <c r="D4" s="137"/>
-      <c r="E4" s="139">
+      <c r="C4" s="136"/>
+      <c r="D4" s="136"/>
+      <c r="E4" s="138">
         <v>43031</v>
       </c>
-      <c r="F4" s="139"/>
+      <c r="F4" s="138"/>
       <c r="J4" s="9">
         <f>E4-WEEKDAY(E4,1)+2+7*(E5-1)</f>
         <v>43031</v>
@@ -3726,178 +3514,178 @@
       </c>
     </row>
     <row r="5" spans="1:66" x14ac:dyDescent="0.2">
-      <c r="B5" s="136" t="s">
+      <c r="B5" s="135" t="s">
         <v>98</v>
       </c>
-      <c r="C5" s="137"/>
-      <c r="D5" s="137"/>
+      <c r="C5" s="136"/>
+      <c r="D5" s="136"/>
       <c r="E5" s="128">
         <v>1</v>
       </c>
       <c r="F5" s="129"/>
-      <c r="J5" s="133" t="str">
+      <c r="J5" s="134" t="str">
         <f>"Week "&amp;(J4-($E$4-WEEKDAY($E$4,1)+2))/7+1</f>
         <v>Week 1</v>
       </c>
-      <c r="K5" s="133"/>
-      <c r="L5" s="133"/>
-      <c r="M5" s="133"/>
-      <c r="N5" s="133"/>
-      <c r="O5" s="133"/>
-      <c r="P5" s="133"/>
-      <c r="Q5" s="133" t="str">
+      <c r="K5" s="134"/>
+      <c r="L5" s="134"/>
+      <c r="M5" s="134"/>
+      <c r="N5" s="134"/>
+      <c r="O5" s="134"/>
+      <c r="P5" s="134"/>
+      <c r="Q5" s="134" t="str">
         <f>"Week "&amp;(Q4-($E$4-WEEKDAY($E$4,1)+2))/7+1</f>
         <v>Week 2</v>
       </c>
-      <c r="R5" s="133"/>
-      <c r="S5" s="133"/>
-      <c r="T5" s="133"/>
-      <c r="U5" s="133"/>
-      <c r="V5" s="133"/>
-      <c r="W5" s="133"/>
-      <c r="X5" s="133" t="str">
+      <c r="R5" s="134"/>
+      <c r="S5" s="134"/>
+      <c r="T5" s="134"/>
+      <c r="U5" s="134"/>
+      <c r="V5" s="134"/>
+      <c r="W5" s="134"/>
+      <c r="X5" s="134" t="str">
         <f>"Week "&amp;(X4-($E$4-WEEKDAY($E$4,1)+2))/7+1</f>
         <v>Week 3</v>
       </c>
-      <c r="Y5" s="133"/>
-      <c r="Z5" s="133"/>
-      <c r="AA5" s="133"/>
-      <c r="AB5" s="133"/>
-      <c r="AC5" s="133"/>
-      <c r="AD5" s="133"/>
-      <c r="AE5" s="133" t="str">
+      <c r="Y5" s="134"/>
+      <c r="Z5" s="134"/>
+      <c r="AA5" s="134"/>
+      <c r="AB5" s="134"/>
+      <c r="AC5" s="134"/>
+      <c r="AD5" s="134"/>
+      <c r="AE5" s="134" t="str">
         <f>"Week "&amp;(AE4-($E$4-WEEKDAY($E$4,1)+2))/7+1</f>
         <v>Week 4</v>
       </c>
-      <c r="AF5" s="133"/>
-      <c r="AG5" s="133"/>
-      <c r="AH5" s="133"/>
-      <c r="AI5" s="133"/>
-      <c r="AJ5" s="133"/>
-      <c r="AK5" s="133"/>
-      <c r="AL5" s="133" t="str">
+      <c r="AF5" s="134"/>
+      <c r="AG5" s="134"/>
+      <c r="AH5" s="134"/>
+      <c r="AI5" s="134"/>
+      <c r="AJ5" s="134"/>
+      <c r="AK5" s="134"/>
+      <c r="AL5" s="134" t="str">
         <f>"Week "&amp;(AL4-($E$4-WEEKDAY($E$4,1)+2))/7+1</f>
         <v>Week 5</v>
       </c>
-      <c r="AM5" s="133"/>
-      <c r="AN5" s="133"/>
-      <c r="AO5" s="133"/>
-      <c r="AP5" s="133"/>
-      <c r="AQ5" s="133"/>
-      <c r="AR5" s="133"/>
-      <c r="AS5" s="133" t="str">
+      <c r="AM5" s="134"/>
+      <c r="AN5" s="134"/>
+      <c r="AO5" s="134"/>
+      <c r="AP5" s="134"/>
+      <c r="AQ5" s="134"/>
+      <c r="AR5" s="134"/>
+      <c r="AS5" s="134" t="str">
         <f>"Week "&amp;(AS4-($E$4-WEEKDAY($E$4,1)+2))/7+1</f>
         <v>Week 6</v>
       </c>
-      <c r="AT5" s="133"/>
-      <c r="AU5" s="133"/>
-      <c r="AV5" s="133"/>
-      <c r="AW5" s="133"/>
-      <c r="AX5" s="133"/>
-      <c r="AY5" s="133"/>
-      <c r="AZ5" s="133" t="str">
+      <c r="AT5" s="134"/>
+      <c r="AU5" s="134"/>
+      <c r="AV5" s="134"/>
+      <c r="AW5" s="134"/>
+      <c r="AX5" s="134"/>
+      <c r="AY5" s="134"/>
+      <c r="AZ5" s="134" t="str">
         <f>"Week "&amp;(AZ4-($E$4-WEEKDAY($E$4,1)+2))/7+1</f>
         <v>Week 7</v>
       </c>
-      <c r="BA5" s="133"/>
-      <c r="BB5" s="133"/>
-      <c r="BC5" s="133"/>
-      <c r="BD5" s="133"/>
-      <c r="BE5" s="133"/>
-      <c r="BF5" s="133"/>
-      <c r="BG5" s="133" t="str">
+      <c r="BA5" s="134"/>
+      <c r="BB5" s="134"/>
+      <c r="BC5" s="134"/>
+      <c r="BD5" s="134"/>
+      <c r="BE5" s="134"/>
+      <c r="BF5" s="134"/>
+      <c r="BG5" s="134" t="str">
         <f>"Week "&amp;(BG4-($E$4-WEEKDAY($E$4,1)+2))/7+1</f>
         <v>Week 8</v>
       </c>
-      <c r="BH5" s="133"/>
-      <c r="BI5" s="133"/>
-      <c r="BJ5" s="133"/>
-      <c r="BK5" s="133"/>
-      <c r="BL5" s="133"/>
-      <c r="BM5" s="133"/>
+      <c r="BH5" s="134"/>
+      <c r="BI5" s="134"/>
+      <c r="BJ5" s="134"/>
+      <c r="BK5" s="134"/>
+      <c r="BL5" s="134"/>
+      <c r="BM5" s="134"/>
     </row>
     <row r="6" spans="1:66" x14ac:dyDescent="0.2">
       <c r="B6" s="16"/>
-      <c r="J6" s="134">
+      <c r="J6" s="141">
         <f>J4</f>
         <v>43031</v>
       </c>
-      <c r="K6" s="134"/>
-      <c r="L6" s="134"/>
-      <c r="M6" s="134"/>
-      <c r="N6" s="134"/>
-      <c r="O6" s="134"/>
-      <c r="P6" s="134"/>
-      <c r="Q6" s="134">
+      <c r="K6" s="141"/>
+      <c r="L6" s="141"/>
+      <c r="M6" s="141"/>
+      <c r="N6" s="141"/>
+      <c r="O6" s="141"/>
+      <c r="P6" s="141"/>
+      <c r="Q6" s="141">
         <f>Q4</f>
         <v>43038</v>
       </c>
-      <c r="R6" s="134"/>
-      <c r="S6" s="134"/>
-      <c r="T6" s="134"/>
-      <c r="U6" s="134"/>
-      <c r="V6" s="134"/>
-      <c r="W6" s="134"/>
-      <c r="X6" s="134">
+      <c r="R6" s="141"/>
+      <c r="S6" s="141"/>
+      <c r="T6" s="141"/>
+      <c r="U6" s="141"/>
+      <c r="V6" s="141"/>
+      <c r="W6" s="141"/>
+      <c r="X6" s="141">
         <f>X4</f>
         <v>43045</v>
       </c>
-      <c r="Y6" s="134"/>
-      <c r="Z6" s="134"/>
-      <c r="AA6" s="134"/>
-      <c r="AB6" s="134"/>
-      <c r="AC6" s="134"/>
-      <c r="AD6" s="134"/>
-      <c r="AE6" s="134">
+      <c r="Y6" s="141"/>
+      <c r="Z6" s="141"/>
+      <c r="AA6" s="141"/>
+      <c r="AB6" s="141"/>
+      <c r="AC6" s="141"/>
+      <c r="AD6" s="141"/>
+      <c r="AE6" s="141">
         <f>AE4</f>
         <v>43052</v>
       </c>
-      <c r="AF6" s="134"/>
-      <c r="AG6" s="134"/>
-      <c r="AH6" s="134"/>
-      <c r="AI6" s="134"/>
-      <c r="AJ6" s="134"/>
-      <c r="AK6" s="134"/>
-      <c r="AL6" s="134">
+      <c r="AF6" s="141"/>
+      <c r="AG6" s="141"/>
+      <c r="AH6" s="141"/>
+      <c r="AI6" s="141"/>
+      <c r="AJ6" s="141"/>
+      <c r="AK6" s="141"/>
+      <c r="AL6" s="141">
         <f>AL4</f>
         <v>43059</v>
       </c>
-      <c r="AM6" s="134"/>
-      <c r="AN6" s="134"/>
-      <c r="AO6" s="134"/>
-      <c r="AP6" s="134"/>
-      <c r="AQ6" s="134"/>
-      <c r="AR6" s="134"/>
-      <c r="AS6" s="134">
+      <c r="AM6" s="141"/>
+      <c r="AN6" s="141"/>
+      <c r="AO6" s="141"/>
+      <c r="AP6" s="141"/>
+      <c r="AQ6" s="141"/>
+      <c r="AR6" s="141"/>
+      <c r="AS6" s="141">
         <f>AS4</f>
         <v>43066</v>
       </c>
-      <c r="AT6" s="134"/>
-      <c r="AU6" s="134"/>
-      <c r="AV6" s="134"/>
-      <c r="AW6" s="134"/>
-      <c r="AX6" s="134"/>
-      <c r="AY6" s="134"/>
-      <c r="AZ6" s="134">
+      <c r="AT6" s="141"/>
+      <c r="AU6" s="141"/>
+      <c r="AV6" s="141"/>
+      <c r="AW6" s="141"/>
+      <c r="AX6" s="141"/>
+      <c r="AY6" s="141"/>
+      <c r="AZ6" s="141">
         <f>AZ4</f>
         <v>43073</v>
       </c>
-      <c r="BA6" s="134"/>
-      <c r="BB6" s="134"/>
-      <c r="BC6" s="134"/>
-      <c r="BD6" s="134"/>
-      <c r="BE6" s="134"/>
-      <c r="BF6" s="134"/>
-      <c r="BG6" s="134">
+      <c r="BA6" s="141"/>
+      <c r="BB6" s="141"/>
+      <c r="BC6" s="141"/>
+      <c r="BD6" s="141"/>
+      <c r="BE6" s="141"/>
+      <c r="BF6" s="141"/>
+      <c r="BG6" s="141">
         <f>BG4</f>
         <v>43080</v>
       </c>
-      <c r="BH6" s="134"/>
-      <c r="BI6" s="134"/>
-      <c r="BJ6" s="134"/>
-      <c r="BK6" s="134"/>
-      <c r="BL6" s="134"/>
-      <c r="BM6" s="134"/>
+      <c r="BH6" s="141"/>
+      <c r="BI6" s="141"/>
+      <c r="BJ6" s="141"/>
+      <c r="BK6" s="141"/>
+      <c r="BL6" s="141"/>
+      <c r="BM6" s="141"/>
     </row>
     <row r="7" spans="1:66" s="5" customFormat="1" ht="36" x14ac:dyDescent="0.2">
       <c r="A7" s="14" t="s">
@@ -4827,7 +4615,7 @@
     </row>
     <row r="16" spans="1:66" s="98" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="90" t="str">
-        <f t="shared" ref="A16:A54" ca="1" si="15">IF(ISERROR(VALUE(SUBSTITUTE(OFFSET(A16,-1,0,1,1),".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A16,-1,0,1,1),".","`",1))),OFFSET(A16,-1,0,1,1)&amp;".1",LEFT(OFFSET(A16,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A16,-1,0,1,1),".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A16,-1,0,1,1),".","`",2))),VALUE(RIGHT(OFFSET(A16,-1,0,1,1),LEN(OFFSET(A16,-1,0,1,1))-FIND("`",SUBSTITUTE(OFFSET(A16,-1,0,1,1),".","`",1))))+1,VALUE(MID(OFFSET(A16,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A16,-1,0,1,1),".","`",1))+1,(FIND("`",SUBSTITUTE(OFFSET(A16,-1,0,1,1),".","`",2))-FIND("`",SUBSTITUTE(OFFSET(A16,-1,0,1,1),".","`",1))-1)))+1)))</f>
+        <f t="shared" ref="A16:A49" ca="1" si="15">IF(ISERROR(VALUE(SUBSTITUTE(OFFSET(A16,-1,0,1,1),".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A16,-1,0,1,1),".","`",1))),OFFSET(A16,-1,0,1,1)&amp;".1",LEFT(OFFSET(A16,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A16,-1,0,1,1),".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A16,-1,0,1,1),".","`",2))),VALUE(RIGHT(OFFSET(A16,-1,0,1,1),LEN(OFFSET(A16,-1,0,1,1))-FIND("`",SUBSTITUTE(OFFSET(A16,-1,0,1,1),".","`",1))))+1,VALUE(MID(OFFSET(A16,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A16,-1,0,1,1),".","`",1))+1,(FIND("`",SUBSTITUTE(OFFSET(A16,-1,0,1,1),".","`",2))-FIND("`",SUBSTITUTE(OFFSET(A16,-1,0,1,1),".","`",1))-1)))+1)))</f>
         <v>2.1</v>
       </c>
       <c r="B16" s="68" t="s">
@@ -6502,12 +6290,12 @@
       <c r="C36" s="69"/>
       <c r="D36" s="91"/>
       <c r="E36" s="92">
-        <f>F24+1</f>
-        <v>43052</v>
+        <f>F24+8</f>
+        <v>43059</v>
       </c>
       <c r="F36" s="93">
         <f>IF(G36=0,E36,E36+G36-1)</f>
-        <v>43052</v>
+        <v>43059</v>
       </c>
       <c r="G36" s="94">
         <v>1</v>
@@ -6589,11 +6377,11 @@
       <c r="D37" s="91"/>
       <c r="E37" s="92">
         <f>F36+1</f>
-        <v>43053</v>
+        <v>43060</v>
       </c>
       <c r="F37" s="93">
         <f t="shared" ref="F37:F39" si="26">IF(G37=0,E37,E37+G37-1)</f>
-        <v>43053</v>
+        <v>43060</v>
       </c>
       <c r="G37" s="94">
         <v>1</v>
@@ -6675,11 +6463,11 @@
       <c r="D38" s="91"/>
       <c r="E38" s="92">
         <f>F37+1</f>
-        <v>43054</v>
+        <v>43061</v>
       </c>
       <c r="F38" s="93">
         <f t="shared" si="26"/>
-        <v>43054</v>
+        <v>43061</v>
       </c>
       <c r="G38" s="94">
         <v>1</v>
@@ -6761,11 +6549,11 @@
       <c r="D39" s="91"/>
       <c r="E39" s="92">
         <f>F38+1</f>
-        <v>43055</v>
+        <v>43062</v>
       </c>
       <c r="F39" s="93">
         <f t="shared" si="26"/>
-        <v>43055</v>
+        <v>43062</v>
       </c>
       <c r="G39" s="94">
         <v>1</v>
@@ -6835,7 +6623,7 @@
       <c r="BM39" s="88"/>
       <c r="BN39" s="99"/>
     </row>
-    <row r="40" spans="1:66" s="100" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:66" s="127" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40" s="84" t="str">
         <f ca="1">IF(ISERROR(VALUE(SUBSTITUTE(OFFSET(A40,-1,0,1,1),".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A40,-1,0,1,1),".","`",1))),TEXT(VALUE(OFFSET(A40,-1,0,1,1))+1,"#"),TEXT(VALUE(LEFT(OFFSET(A40,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A40,-1,0,1,1),".","`",1))-1))+1,"#")))</f>
         <v>7</v>
@@ -6908,7 +6696,7 @@
       <c r="BM40" s="88"/>
       <c r="BN40" s="99"/>
     </row>
-    <row r="41" spans="1:66" s="100" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A41" s="90" t="str">
         <f t="shared" ca="1" si="15"/>
         <v>7.1</v>
@@ -6919,22 +6707,22 @@
       <c r="C41" s="69"/>
       <c r="D41" s="91"/>
       <c r="E41" s="92">
-        <f>F19+1</f>
-        <v>43067</v>
+        <f>F39+1</f>
+        <v>43063</v>
       </c>
       <c r="F41" s="93">
         <f>IF(G41=0,E41,E41+G41-1)</f>
-        <v>43069</v>
+        <v>43063</v>
       </c>
       <c r="G41" s="94">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H41" s="95">
         <v>0</v>
       </c>
       <c r="I41" s="96">
         <f t="shared" ref="I41:I44" si="27">G41</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J41" s="88"/>
       <c r="K41" s="88"/>
@@ -6992,9 +6780,8 @@
       <c r="BK41" s="88"/>
       <c r="BL41" s="88"/>
       <c r="BM41" s="88"/>
-      <c r="BN41" s="99"/>
-    </row>
-    <row r="42" spans="1:66" s="100" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="42" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A42" s="90" t="str">
         <f t="shared" ca="1" si="15"/>
         <v>7.2</v>
@@ -7006,21 +6793,21 @@
       <c r="D42" s="91"/>
       <c r="E42" s="92">
         <f>F41+1</f>
-        <v>43070</v>
+        <v>43064</v>
       </c>
       <c r="F42" s="93">
         <f t="shared" ref="F42:F44" si="28">IF(G42=0,E42,E42+G42-1)</f>
-        <v>43073</v>
+        <v>43064</v>
       </c>
       <c r="G42" s="94">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H42" s="95">
         <v>0</v>
       </c>
       <c r="I42" s="96">
         <f t="shared" si="27"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J42" s="88"/>
       <c r="K42" s="88"/>
@@ -7078,9 +6865,8 @@
       <c r="BK42" s="88"/>
       <c r="BL42" s="88"/>
       <c r="BM42" s="88"/>
-      <c r="BN42" s="99"/>
-    </row>
-    <row r="43" spans="1:66" s="100" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="43" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A43" s="90" t="str">
         <f t="shared" ca="1" si="15"/>
         <v>7.3</v>
@@ -7092,21 +6878,21 @@
       <c r="D43" s="91"/>
       <c r="E43" s="92">
         <f>F42+1</f>
-        <v>43074</v>
+        <v>43065</v>
       </c>
       <c r="F43" s="93">
         <f t="shared" si="28"/>
-        <v>43075</v>
+        <v>43065</v>
       </c>
       <c r="G43" s="94">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H43" s="95">
         <v>0</v>
       </c>
       <c r="I43" s="96">
         <f t="shared" si="27"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J43" s="88"/>
       <c r="K43" s="88"/>
@@ -7164,9 +6950,8 @@
       <c r="BK43" s="88"/>
       <c r="BL43" s="88"/>
       <c r="BM43" s="88"/>
-      <c r="BN43" s="99"/>
-    </row>
-    <row r="44" spans="1:66" s="100" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="44" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A44" s="90" t="str">
         <f t="shared" ca="1" si="15"/>
         <v>7.4</v>
@@ -7178,21 +6963,21 @@
       <c r="D44" s="91"/>
       <c r="E44" s="92">
         <f>F43+1</f>
-        <v>43076</v>
+        <v>43066</v>
       </c>
       <c r="F44" s="93">
         <f t="shared" si="28"/>
-        <v>43077</v>
+        <v>43066</v>
       </c>
       <c r="G44" s="94">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H44" s="95">
         <v>0</v>
       </c>
       <c r="I44" s="96">
         <f t="shared" si="27"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J44" s="88"/>
       <c r="K44" s="88"/>
@@ -7250,17 +7035,18 @@
       <c r="BK44" s="88"/>
       <c r="BL44" s="88"/>
       <c r="BM44" s="88"/>
-      <c r="BN44" s="99"/>
-    </row>
-    <row r="45" spans="1:66" s="127" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="45" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A45" s="84" t="str">
         <f ca="1">IF(ISERROR(VALUE(SUBSTITUTE(OFFSET(A45,-1,0,1,1),".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A45,-1,0,1,1),".","`",1))),TEXT(VALUE(OFFSET(A45,-1,0,1,1))+1,"#"),TEXT(VALUE(LEFT(OFFSET(A45,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A45,-1,0,1,1),".","`",1))-1))+1,"#")))</f>
         <v>8</v>
       </c>
       <c r="B45" s="13" t="s">
-        <v>171</v>
-      </c>
-      <c r="C45" s="65"/>
+        <v>165</v>
+      </c>
+      <c r="C45" s="65" t="s">
+        <v>152</v>
+      </c>
       <c r="D45" s="85"/>
       <c r="E45" s="86"/>
       <c r="F45" s="86"/>
@@ -7323,35 +7109,34 @@
       <c r="BK45" s="88"/>
       <c r="BL45" s="88"/>
       <c r="BM45" s="88"/>
-      <c r="BN45" s="99"/>
-    </row>
-    <row r="46" spans="1:66" x14ac:dyDescent="0.2">
+    </row>
+    <row r="46" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="90" t="str">
         <f t="shared" ca="1" si="15"/>
         <v>8.1</v>
       </c>
       <c r="B46" s="68" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="C46" s="69"/>
       <c r="D46" s="91"/>
       <c r="E46" s="92">
-        <f>F39+1</f>
-        <v>43056</v>
+        <f>F44+1</f>
+        <v>43067</v>
       </c>
       <c r="F46" s="93">
         <f>IF(G46=0,E46,E46+G46-1)</f>
-        <v>43056</v>
+        <v>43068</v>
       </c>
       <c r="G46" s="94">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H46" s="95">
         <v>0</v>
       </c>
       <c r="I46" s="96">
         <f t="shared" ref="I46:I49" si="29">G46</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J46" s="88"/>
       <c r="K46" s="88"/>
@@ -7410,7 +7195,7 @@
       <c r="BL46" s="88"/>
       <c r="BM46" s="88"/>
     </row>
-    <row r="47" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:66" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" s="90" t="str">
         <f t="shared" ca="1" si="15"/>
         <v>8.2</v>
@@ -7422,11 +7207,11 @@
       <c r="D47" s="91"/>
       <c r="E47" s="92">
         <f>F46+1</f>
-        <v>43057</v>
+        <v>43069</v>
       </c>
       <c r="F47" s="93">
         <f t="shared" ref="F47:F49" si="30">IF(G47=0,E47,E47+G47-1)</f>
-        <v>43057</v>
+        <v>43069</v>
       </c>
       <c r="G47" s="94">
         <v>1</v>
@@ -7495,7 +7280,7 @@
       <c r="BL47" s="88"/>
       <c r="BM47" s="88"/>
     </row>
-    <row r="48" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:66" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" s="90" t="str">
         <f t="shared" ca="1" si="15"/>
         <v>8.3</v>
@@ -7507,11 +7292,11 @@
       <c r="D48" s="91"/>
       <c r="E48" s="92">
         <f>F47+1</f>
-        <v>43058</v>
+        <v>43070</v>
       </c>
       <c r="F48" s="93">
         <f t="shared" si="30"/>
-        <v>43058</v>
+        <v>43070</v>
       </c>
       <c r="G48" s="94">
         <v>1</v>
@@ -7580,7 +7365,7 @@
       <c r="BL48" s="88"/>
       <c r="BM48" s="88"/>
     </row>
-    <row r="49" spans="1:65" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:65" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" s="90" t="str">
         <f t="shared" ca="1" si="15"/>
         <v>8.4</v>
@@ -7592,11 +7377,11 @@
       <c r="D49" s="91"/>
       <c r="E49" s="92">
         <f>F48+1</f>
-        <v>43059</v>
+        <v>43071</v>
       </c>
       <c r="F49" s="93">
         <f t="shared" si="30"/>
-        <v>43059</v>
+        <v>43071</v>
       </c>
       <c r="G49" s="94">
         <v>1</v>
@@ -7665,531 +7450,214 @@
       <c r="BL49" s="88"/>
       <c r="BM49" s="88"/>
     </row>
-    <row r="50" spans="1:65" x14ac:dyDescent="0.2">
-      <c r="A50" s="84" t="str">
-        <f ca="1">IF(ISERROR(VALUE(SUBSTITUTE(OFFSET(A50,-1,0,1,1),".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A50,-1,0,1,1),".","`",1))),TEXT(VALUE(OFFSET(A50,-1,0,1,1))+1,"#"),TEXT(VALUE(LEFT(OFFSET(A50,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A50,-1,0,1,1),".","`",1))-1))+1,"#")))</f>
-        <v>9</v>
-      </c>
-      <c r="B50" s="13" t="s">
-        <v>165</v>
-      </c>
-      <c r="C50" s="65" t="s">
-        <v>152</v>
-      </c>
+    <row r="50" spans="1:65" ht="13.5" x14ac:dyDescent="0.25">
+      <c r="A50" s="90"/>
+      <c r="B50" s="70"/>
+      <c r="C50" s="70"/>
       <c r="D50" s="85"/>
-      <c r="E50" s="86"/>
-      <c r="F50" s="86"/>
+      <c r="E50" s="71"/>
+      <c r="F50" s="71"/>
       <c r="G50" s="87"/>
       <c r="H50" s="67"/>
-      <c r="I50" s="96"/>
+      <c r="I50" s="66"/>
       <c r="J50" s="88"/>
       <c r="K50" s="88"/>
       <c r="L50" s="88"/>
       <c r="M50" s="88"/>
-      <c r="N50" s="88"/>
-      <c r="O50" s="88"/>
-      <c r="P50" s="88"/>
-      <c r="Q50" s="88"/>
-      <c r="R50" s="88"/>
-      <c r="S50" s="88"/>
-      <c r="T50" s="88"/>
-      <c r="U50" s="88"/>
-      <c r="V50" s="88"/>
-      <c r="W50" s="88"/>
-      <c r="X50" s="88"/>
-      <c r="Y50" s="88"/>
-      <c r="Z50" s="88"/>
-      <c r="AA50" s="88"/>
-      <c r="AB50" s="88"/>
-      <c r="AC50" s="88"/>
-      <c r="AD50" s="88"/>
-      <c r="AE50" s="88"/>
-      <c r="AF50" s="88"/>
-      <c r="AG50" s="88"/>
-      <c r="AH50" s="88"/>
-      <c r="AI50" s="88"/>
-      <c r="AJ50" s="88"/>
-      <c r="AK50" s="88"/>
-      <c r="AL50" s="88"/>
-      <c r="AM50" s="88"/>
-      <c r="AN50" s="88"/>
-      <c r="AO50" s="88"/>
-      <c r="AP50" s="88"/>
-      <c r="AQ50" s="88"/>
-      <c r="AR50" s="88"/>
-      <c r="AS50" s="88"/>
-      <c r="AT50" s="88"/>
-      <c r="AU50" s="88"/>
-      <c r="AV50" s="88"/>
-      <c r="AW50" s="88"/>
-      <c r="AX50" s="88"/>
-      <c r="AY50" s="88"/>
-      <c r="AZ50" s="88"/>
-      <c r="BA50" s="88"/>
-      <c r="BB50" s="88"/>
-      <c r="BC50" s="88"/>
-      <c r="BD50" s="88"/>
-      <c r="BE50" s="88"/>
-      <c r="BF50" s="88"/>
-      <c r="BG50" s="88"/>
-      <c r="BH50" s="88"/>
-      <c r="BI50" s="88"/>
-      <c r="BJ50" s="88"/>
-      <c r="BK50" s="88"/>
-      <c r="BL50" s="88"/>
-      <c r="BM50" s="88"/>
-    </row>
-    <row r="51" spans="1:65" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="90" t="str">
-        <f t="shared" ca="1" si="15"/>
-        <v>9.1</v>
-      </c>
-      <c r="B51" s="68" t="s">
-        <v>172</v>
-      </c>
-      <c r="C51" s="69"/>
-      <c r="D51" s="91"/>
-      <c r="E51" s="92">
-        <f>F44+1</f>
-        <v>43078</v>
-      </c>
-      <c r="F51" s="93">
-        <f>IF(G51=0,E51,E51+G51-1)</f>
-        <v>43086</v>
-      </c>
-      <c r="G51" s="94">
-        <v>9</v>
-      </c>
-      <c r="H51" s="95">
-        <v>0</v>
-      </c>
-      <c r="I51" s="96">
-        <f t="shared" ref="I51:I54" si="31">G51</f>
-        <v>9</v>
-      </c>
+      <c r="N50" s="125"/>
+      <c r="O50" s="125"/>
+      <c r="P50" s="125"/>
+      <c r="Q50" s="125"/>
+      <c r="R50" s="125"/>
+      <c r="S50" s="125"/>
+      <c r="T50" s="125"/>
+      <c r="U50" s="125"/>
+      <c r="V50" s="125"/>
+      <c r="W50" s="125"/>
+      <c r="X50" s="125"/>
+      <c r="Y50" s="125"/>
+      <c r="Z50" s="125"/>
+      <c r="AA50" s="125"/>
+      <c r="AB50" s="125"/>
+      <c r="AC50" s="125"/>
+      <c r="AD50" s="125"/>
+      <c r="AE50" s="125"/>
+      <c r="AF50" s="125"/>
+      <c r="AG50" s="125"/>
+      <c r="AH50" s="125"/>
+      <c r="AI50" s="125"/>
+      <c r="AJ50" s="125"/>
+      <c r="AK50" s="125"/>
+      <c r="AL50" s="125"/>
+      <c r="AM50" s="125"/>
+      <c r="AN50" s="125"/>
+      <c r="AO50" s="125"/>
+      <c r="AP50" s="125"/>
+      <c r="AQ50" s="125"/>
+      <c r="AR50" s="125"/>
+      <c r="AS50" s="125"/>
+      <c r="AT50" s="125"/>
+      <c r="AU50" s="125"/>
+      <c r="AV50" s="125"/>
+      <c r="AW50" s="125"/>
+      <c r="AX50" s="125"/>
+      <c r="AY50" s="125"/>
+      <c r="AZ50" s="125"/>
+      <c r="BA50" s="125"/>
+      <c r="BB50" s="125"/>
+      <c r="BC50" s="125"/>
+      <c r="BD50" s="125"/>
+      <c r="BE50" s="125"/>
+      <c r="BF50" s="125"/>
+      <c r="BG50" s="125"/>
+      <c r="BH50" s="125"/>
+      <c r="BI50" s="125"/>
+      <c r="BJ50" s="125"/>
+      <c r="BK50" s="125"/>
+      <c r="BL50" s="125"/>
+      <c r="BM50" s="125"/>
+    </row>
+    <row r="51" spans="1:65" ht="13.5" x14ac:dyDescent="0.25">
+      <c r="A51" s="90"/>
+      <c r="B51" s="70"/>
+      <c r="C51" s="70"/>
+      <c r="D51" s="85"/>
+      <c r="E51" s="71"/>
+      <c r="F51" s="71"/>
+      <c r="G51" s="87"/>
+      <c r="H51" s="67"/>
+      <c r="I51" s="66"/>
       <c r="J51" s="88"/>
       <c r="K51" s="88"/>
       <c r="L51" s="88"/>
       <c r="M51" s="88"/>
-      <c r="N51" s="88"/>
-      <c r="O51" s="88"/>
-      <c r="P51" s="88"/>
-      <c r="Q51" s="88"/>
-      <c r="R51" s="88"/>
-      <c r="S51" s="88"/>
-      <c r="T51" s="88"/>
-      <c r="U51" s="88"/>
-      <c r="V51" s="88"/>
-      <c r="W51" s="88"/>
-      <c r="X51" s="88"/>
-      <c r="Y51" s="88"/>
-      <c r="Z51" s="88"/>
-      <c r="AA51" s="88"/>
-      <c r="AB51" s="88"/>
-      <c r="AC51" s="88"/>
-      <c r="AD51" s="88"/>
-      <c r="AE51" s="88"/>
-      <c r="AF51" s="88"/>
-      <c r="AG51" s="88"/>
-      <c r="AH51" s="88"/>
-      <c r="AI51" s="88"/>
-      <c r="AJ51" s="88"/>
-      <c r="AK51" s="88"/>
-      <c r="AL51" s="88"/>
-      <c r="AM51" s="88"/>
-      <c r="AN51" s="88"/>
-      <c r="AO51" s="88"/>
-      <c r="AP51" s="88"/>
-      <c r="AQ51" s="88"/>
-      <c r="AR51" s="88"/>
-      <c r="AS51" s="88"/>
-      <c r="AT51" s="88"/>
-      <c r="AU51" s="88"/>
-      <c r="AV51" s="88"/>
-      <c r="AW51" s="88"/>
-      <c r="AX51" s="88"/>
-      <c r="AY51" s="88"/>
-      <c r="AZ51" s="88"/>
-      <c r="BA51" s="88"/>
-      <c r="BB51" s="88"/>
-      <c r="BC51" s="88"/>
-      <c r="BD51" s="88"/>
-      <c r="BE51" s="88"/>
-      <c r="BF51" s="88"/>
-      <c r="BG51" s="88"/>
-      <c r="BH51" s="88"/>
-      <c r="BI51" s="88"/>
-      <c r="BJ51" s="88"/>
-      <c r="BK51" s="88"/>
-      <c r="BL51" s="88"/>
-      <c r="BM51" s="88"/>
     </row>
     <row r="52" spans="1:65" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="90" t="str">
-        <f t="shared" ca="1" si="15"/>
-        <v>9.2</v>
-      </c>
-      <c r="B52" s="68" t="s">
-        <v>163</v>
-      </c>
-      <c r="C52" s="69"/>
-      <c r="D52" s="91"/>
-      <c r="E52" s="92">
-        <f>F51+1</f>
-        <v>43087</v>
-      </c>
-      <c r="F52" s="93">
-        <f t="shared" ref="F52:F54" si="32">IF(G52=0,E52,E52+G52-1)</f>
-        <v>43087</v>
-      </c>
-      <c r="G52" s="94">
-        <v>1</v>
-      </c>
-      <c r="H52" s="95">
-        <v>0</v>
-      </c>
-      <c r="I52" s="96">
-        <f t="shared" si="31"/>
-        <v>1</v>
-      </c>
+      <c r="A52" s="140" t="s">
+        <v>7</v>
+      </c>
+      <c r="B52" s="140"/>
+      <c r="C52" s="101"/>
+      <c r="D52" s="101"/>
+      <c r="E52" s="101"/>
+      <c r="F52" s="101"/>
+      <c r="G52" s="102"/>
+      <c r="H52" s="102"/>
+      <c r="I52" s="102"/>
       <c r="J52" s="88"/>
       <c r="K52" s="88"/>
       <c r="L52" s="88"/>
       <c r="M52" s="88"/>
-      <c r="N52" s="88"/>
-      <c r="O52" s="88"/>
-      <c r="P52" s="88"/>
-      <c r="Q52" s="88"/>
-      <c r="R52" s="88"/>
-      <c r="S52" s="88"/>
-      <c r="T52" s="88"/>
-      <c r="U52" s="88"/>
-      <c r="V52" s="88"/>
-      <c r="W52" s="88"/>
-      <c r="X52" s="88"/>
-      <c r="Y52" s="88"/>
-      <c r="Z52" s="88"/>
-      <c r="AA52" s="88"/>
-      <c r="AB52" s="88"/>
-      <c r="AC52" s="88"/>
-      <c r="AD52" s="88"/>
-      <c r="AE52" s="88"/>
-      <c r="AF52" s="88"/>
-      <c r="AG52" s="88"/>
-      <c r="AH52" s="88"/>
-      <c r="AI52" s="88"/>
-      <c r="AJ52" s="88"/>
-      <c r="AK52" s="88"/>
-      <c r="AL52" s="88"/>
-      <c r="AM52" s="88"/>
-      <c r="AN52" s="88"/>
-      <c r="AO52" s="88"/>
-      <c r="AP52" s="88"/>
-      <c r="AQ52" s="88"/>
-      <c r="AR52" s="88"/>
-      <c r="AS52" s="88"/>
-      <c r="AT52" s="88"/>
-      <c r="AU52" s="88"/>
-      <c r="AV52" s="88"/>
-      <c r="AW52" s="88"/>
-      <c r="AX52" s="88"/>
-      <c r="AY52" s="88"/>
-      <c r="AZ52" s="88"/>
-      <c r="BA52" s="88"/>
-      <c r="BB52" s="88"/>
-      <c r="BC52" s="88"/>
-      <c r="BD52" s="88"/>
-      <c r="BE52" s="88"/>
-      <c r="BF52" s="88"/>
-      <c r="BG52" s="88"/>
-      <c r="BH52" s="88"/>
-      <c r="BI52" s="88"/>
-      <c r="BJ52" s="88"/>
-      <c r="BK52" s="88"/>
-      <c r="BL52" s="88"/>
-      <c r="BM52" s="88"/>
     </row>
     <row r="53" spans="1:65" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="90" t="str">
-        <f t="shared" ca="1" si="15"/>
-        <v>9.3</v>
-      </c>
-      <c r="B53" s="68" t="s">
-        <v>164</v>
-      </c>
-      <c r="C53" s="69"/>
-      <c r="D53" s="91"/>
-      <c r="E53" s="92">
-        <f>F52+1</f>
-        <v>43088</v>
-      </c>
-      <c r="F53" s="93">
-        <f t="shared" si="32"/>
-        <v>43088</v>
-      </c>
-      <c r="G53" s="94">
-        <v>1</v>
-      </c>
-      <c r="H53" s="95">
-        <v>0</v>
-      </c>
-      <c r="I53" s="96">
-        <f t="shared" si="31"/>
-        <v>1</v>
-      </c>
+      <c r="A53" s="105" t="s">
+        <v>128</v>
+      </c>
+      <c r="B53" s="106"/>
+      <c r="C53" s="106"/>
+      <c r="D53" s="106"/>
+      <c r="E53" s="106"/>
+      <c r="F53" s="106"/>
+      <c r="G53" s="107"/>
+      <c r="H53" s="107"/>
+      <c r="I53" s="107"/>
       <c r="J53" s="88"/>
       <c r="K53" s="88"/>
       <c r="L53" s="88"/>
       <c r="M53" s="88"/>
-      <c r="N53" s="88"/>
-      <c r="O53" s="88"/>
-      <c r="P53" s="88"/>
-      <c r="Q53" s="88"/>
-      <c r="R53" s="88"/>
-      <c r="S53" s="88"/>
-      <c r="T53" s="88"/>
-      <c r="U53" s="88"/>
-      <c r="V53" s="88"/>
-      <c r="W53" s="88"/>
-      <c r="X53" s="88"/>
-      <c r="Y53" s="88"/>
-      <c r="Z53" s="88"/>
-      <c r="AA53" s="88"/>
-      <c r="AB53" s="88"/>
-      <c r="AC53" s="88"/>
-      <c r="AD53" s="88"/>
-      <c r="AE53" s="88"/>
-      <c r="AF53" s="88"/>
-      <c r="AG53" s="88"/>
-      <c r="AH53" s="88"/>
-      <c r="AI53" s="88"/>
-      <c r="AJ53" s="88"/>
-      <c r="AK53" s="88"/>
-      <c r="AL53" s="88"/>
-      <c r="AM53" s="88"/>
-      <c r="AN53" s="88"/>
-      <c r="AO53" s="88"/>
-      <c r="AP53" s="88"/>
-      <c r="AQ53" s="88"/>
-      <c r="AR53" s="88"/>
-      <c r="AS53" s="88"/>
-      <c r="AT53" s="88"/>
-      <c r="AU53" s="88"/>
-      <c r="AV53" s="88"/>
-      <c r="AW53" s="88"/>
-      <c r="AX53" s="88"/>
-      <c r="AY53" s="88"/>
-      <c r="AZ53" s="88"/>
-      <c r="BA53" s="88"/>
-      <c r="BB53" s="88"/>
-      <c r="BC53" s="88"/>
-      <c r="BD53" s="88"/>
-      <c r="BE53" s="88"/>
-      <c r="BF53" s="88"/>
-      <c r="BG53" s="88"/>
-      <c r="BH53" s="88"/>
-      <c r="BI53" s="88"/>
-      <c r="BJ53" s="88"/>
-      <c r="BK53" s="88"/>
-      <c r="BL53" s="88"/>
-      <c r="BM53" s="88"/>
     </row>
     <row r="54" spans="1:65" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="90" t="str">
-        <f t="shared" ca="1" si="15"/>
-        <v>9.4</v>
-      </c>
-      <c r="B54" s="68" t="s">
-        <v>165</v>
-      </c>
-      <c r="C54" s="69"/>
-      <c r="D54" s="91"/>
-      <c r="E54" s="92">
-        <f>F53+1</f>
-        <v>43089</v>
-      </c>
-      <c r="F54" s="93">
-        <f t="shared" si="32"/>
-        <v>43089</v>
-      </c>
-      <c r="G54" s="94">
-        <v>1</v>
-      </c>
-      <c r="H54" s="95">
-        <v>0</v>
-      </c>
-      <c r="I54" s="96">
-        <f t="shared" si="31"/>
-        <v>1</v>
-      </c>
+      <c r="A54" s="109" t="s">
+        <v>22</v>
+      </c>
+      <c r="B54" s="110"/>
+      <c r="C54" s="110"/>
+      <c r="D54" s="110"/>
+      <c r="E54" s="110"/>
+      <c r="F54" s="110"/>
+      <c r="G54" s="111"/>
+      <c r="H54" s="111"/>
+      <c r="I54" s="111"/>
       <c r="J54" s="88"/>
       <c r="K54" s="88"/>
       <c r="L54" s="88"/>
       <c r="M54" s="88"/>
-      <c r="N54" s="88"/>
-      <c r="O54" s="88"/>
-      <c r="P54" s="88"/>
-      <c r="Q54" s="88"/>
-      <c r="R54" s="88"/>
-      <c r="S54" s="88"/>
-      <c r="T54" s="88"/>
-      <c r="U54" s="88"/>
-      <c r="V54" s="88"/>
-      <c r="W54" s="88"/>
-      <c r="X54" s="88"/>
-      <c r="Y54" s="88"/>
-      <c r="Z54" s="88"/>
-      <c r="AA54" s="88"/>
-      <c r="AB54" s="88"/>
-      <c r="AC54" s="88"/>
-      <c r="AD54" s="88"/>
-      <c r="AE54" s="88"/>
-      <c r="AF54" s="88"/>
-      <c r="AG54" s="88"/>
-      <c r="AH54" s="88"/>
-      <c r="AI54" s="88"/>
-      <c r="AJ54" s="88"/>
-      <c r="AK54" s="88"/>
-      <c r="AL54" s="88"/>
-      <c r="AM54" s="88"/>
-      <c r="AN54" s="88"/>
-      <c r="AO54" s="88"/>
-      <c r="AP54" s="88"/>
-      <c r="AQ54" s="88"/>
-      <c r="AR54" s="88"/>
-      <c r="AS54" s="88"/>
-      <c r="AT54" s="88"/>
-      <c r="AU54" s="88"/>
-      <c r="AV54" s="88"/>
-      <c r="AW54" s="88"/>
-      <c r="AX54" s="88"/>
-      <c r="AY54" s="88"/>
-      <c r="AZ54" s="88"/>
-      <c r="BA54" s="88"/>
-      <c r="BB54" s="88"/>
-      <c r="BC54" s="88"/>
-      <c r="BD54" s="88"/>
-      <c r="BE54" s="88"/>
-      <c r="BF54" s="88"/>
-      <c r="BG54" s="88"/>
-      <c r="BH54" s="88"/>
-      <c r="BI54" s="88"/>
-      <c r="BJ54" s="88"/>
-      <c r="BK54" s="88"/>
-      <c r="BL54" s="88"/>
-      <c r="BM54" s="88"/>
-    </row>
-    <row r="55" spans="1:65" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A55" s="90"/>
-      <c r="B55" s="70"/>
-      <c r="C55" s="70"/>
-      <c r="D55" s="85"/>
-      <c r="E55" s="71"/>
-      <c r="F55" s="71"/>
-      <c r="G55" s="87"/>
-      <c r="H55" s="67"/>
-      <c r="I55" s="66"/>
+    </row>
+    <row r="55" spans="1:65" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="90" t="str">
+        <f ca="1">IF(ISERROR(VALUE(SUBSTITUTE(OFFSET(A55,-1,0,1,1),".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A55,-1,0,1,1),".","`",1))),TEXT(VALUE(OFFSET(A55,-1,0,1,1))+1,"#"),TEXT(VALUE(LEFT(OFFSET(A55,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A55,-1,0,1,1),".","`",1))-1))+1,"#")))</f>
+        <v>1</v>
+      </c>
+      <c r="B55" s="112" t="s">
+        <v>23</v>
+      </c>
+      <c r="C55" s="112"/>
+      <c r="D55" s="113"/>
+      <c r="E55" s="86"/>
+      <c r="F55" s="114"/>
+      <c r="G55" s="115"/>
+      <c r="H55" s="116"/>
+      <c r="I55" s="115"/>
       <c r="J55" s="88"/>
       <c r="K55" s="88"/>
       <c r="L55" s="88"/>
       <c r="M55" s="88"/>
-      <c r="N55" s="125"/>
-      <c r="O55" s="125"/>
-      <c r="P55" s="125"/>
-      <c r="Q55" s="125"/>
-      <c r="R55" s="125"/>
-      <c r="S55" s="125"/>
-      <c r="T55" s="125"/>
-      <c r="U55" s="125"/>
-      <c r="V55" s="125"/>
-      <c r="W55" s="125"/>
-      <c r="X55" s="125"/>
-      <c r="Y55" s="125"/>
-      <c r="Z55" s="125"/>
-      <c r="AA55" s="125"/>
-      <c r="AB55" s="125"/>
-      <c r="AC55" s="125"/>
-      <c r="AD55" s="125"/>
-      <c r="AE55" s="125"/>
-      <c r="AF55" s="125"/>
-      <c r="AG55" s="125"/>
-      <c r="AH55" s="125"/>
-      <c r="AI55" s="125"/>
-      <c r="AJ55" s="125"/>
-      <c r="AK55" s="125"/>
-      <c r="AL55" s="125"/>
-      <c r="AM55" s="125"/>
-      <c r="AN55" s="125"/>
-      <c r="AO55" s="125"/>
-      <c r="AP55" s="125"/>
-      <c r="AQ55" s="125"/>
-      <c r="AR55" s="125"/>
-      <c r="AS55" s="125"/>
-      <c r="AT55" s="125"/>
-      <c r="AU55" s="125"/>
-      <c r="AV55" s="125"/>
-      <c r="AW55" s="125"/>
-      <c r="AX55" s="125"/>
-      <c r="AY55" s="125"/>
-      <c r="AZ55" s="125"/>
-      <c r="BA55" s="125"/>
-      <c r="BB55" s="125"/>
-      <c r="BC55" s="125"/>
-      <c r="BD55" s="125"/>
-      <c r="BE55" s="125"/>
-      <c r="BF55" s="125"/>
-      <c r="BG55" s="125"/>
-      <c r="BH55" s="125"/>
-      <c r="BI55" s="125"/>
-      <c r="BJ55" s="125"/>
-      <c r="BK55" s="125"/>
-      <c r="BL55" s="125"/>
-      <c r="BM55" s="125"/>
-    </row>
-    <row r="56" spans="1:65" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A56" s="90"/>
-      <c r="B56" s="70"/>
-      <c r="C56" s="70"/>
-      <c r="D56" s="85"/>
-      <c r="E56" s="71"/>
-      <c r="F56" s="71"/>
-      <c r="G56" s="87"/>
-      <c r="H56" s="67"/>
-      <c r="I56" s="66"/>
+    </row>
+    <row r="56" spans="1:65" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="90" t="str">
+        <f ca="1">IF(ISERROR(VALUE(SUBSTITUTE(OFFSET(A56,-1,0,1,1),".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A56,-1,0,1,1),".","`",1))),OFFSET(A56,-1,0,1,1)&amp;".1",LEFT(OFFSET(A56,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A56,-1,0,1,1),".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A56,-1,0,1,1),".","`",2))),VALUE(RIGHT(OFFSET(A56,-1,0,1,1),LEN(OFFSET(A56,-1,0,1,1))-FIND("`",SUBSTITUTE(OFFSET(A56,-1,0,1,1),".","`",1))))+1,VALUE(MID(OFFSET(A56,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A56,-1,0,1,1),".","`",1))+1,(FIND("`",SUBSTITUTE(OFFSET(A56,-1,0,1,1),".","`",2))-FIND("`",SUBSTITUTE(OFFSET(A56,-1,0,1,1),".","`",1))-1)))+1)))</f>
+        <v>1.1</v>
+      </c>
+      <c r="B56" s="117" t="s">
+        <v>14</v>
+      </c>
+      <c r="C56" s="117"/>
+      <c r="D56" s="113"/>
+      <c r="E56" s="86"/>
+      <c r="F56" s="114"/>
+      <c r="G56" s="115"/>
+      <c r="H56" s="116"/>
+      <c r="I56" s="115"/>
       <c r="J56" s="88"/>
       <c r="K56" s="88"/>
       <c r="L56" s="88"/>
       <c r="M56" s="88"/>
     </row>
     <row r="57" spans="1:65" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="142" t="s">
-        <v>7</v>
-      </c>
-      <c r="B57" s="142"/>
-      <c r="C57" s="101"/>
-      <c r="D57" s="101"/>
-      <c r="E57" s="101"/>
-      <c r="F57" s="101"/>
-      <c r="G57" s="102"/>
-      <c r="H57" s="102"/>
-      <c r="I57" s="102"/>
+      <c r="A57" s="90" t="str">
+        <f ca="1">IF(ISERROR(VALUE(SUBSTITUTE(OFFSET(A57,-1,0,1,1),".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A57,-1,0,1,1),".","`",2))),OFFSET(A57,-1,0,1,1)&amp;".1",LEFT(OFFSET(A57,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A57,-1,0,1,1),".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A57,-1,0,1,1),".","`",3))),VALUE(RIGHT(OFFSET(A57,-1,0,1,1),LEN(OFFSET(A57,-1,0,1,1))-FIND("`",SUBSTITUTE(OFFSET(A57,-1,0,1,1),".","`",2))))+1,VALUE(MID(OFFSET(A57,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A57,-1,0,1,1),".","`",2))+1,(FIND("`",SUBSTITUTE(OFFSET(A57,-1,0,1,1),".","`",3))-FIND("`",SUBSTITUTE(OFFSET(A57,-1,0,1,1),".","`",2))-1)))+1)))</f>
+        <v>1.1.1</v>
+      </c>
+      <c r="B57" s="118" t="s">
+        <v>24</v>
+      </c>
+      <c r="C57" s="117"/>
+      <c r="D57" s="113"/>
+      <c r="E57" s="86"/>
+      <c r="F57" s="114"/>
+      <c r="G57" s="115"/>
+      <c r="H57" s="116"/>
+      <c r="I57" s="115"/>
       <c r="J57" s="88"/>
       <c r="K57" s="88"/>
       <c r="L57" s="88"/>
       <c r="M57" s="88"/>
     </row>
     <row r="58" spans="1:65" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="105" t="s">
-        <v>128</v>
-      </c>
-      <c r="B58" s="106"/>
-      <c r="C58" s="106"/>
-      <c r="D58" s="106"/>
-      <c r="E58" s="106"/>
-      <c r="F58" s="106"/>
-      <c r="G58" s="107"/>
-      <c r="H58" s="107"/>
-      <c r="I58" s="107"/>
+      <c r="A58" s="90" t="str">
+        <f ca="1">IF(ISERROR(VALUE(SUBSTITUTE(OFFSET(A58,-1,0,1,1),".",""))),"0.0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A58,-1,0,1,1),".","`",3))),OFFSET(A58,-1,0,1,1)&amp;".1",LEFT(OFFSET(A58,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A58,-1,0,1,1),".","`",3)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A58,-1,0,1,1),".","`",4))),VALUE(RIGHT(OFFSET(A58,-1,0,1,1),LEN(OFFSET(A58,-1,0,1,1))-FIND("`",SUBSTITUTE(OFFSET(A58,-1,0,1,1),".","`",3))))+1,VALUE(MID(OFFSET(A58,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A58,-1,0,1,1),".","`",3))+1,(FIND("`",SUBSTITUTE(OFFSET(A58,-1,0,1,1),".","`",4))-FIND("`",SUBSTITUTE(OFFSET(A58,-1,0,1,1),".","`",3))-1)))+1)))</f>
+        <v>1.1.1.1</v>
+      </c>
+      <c r="B58" s="118" t="s">
+        <v>25</v>
+      </c>
+      <c r="C58" s="117"/>
+      <c r="D58" s="113"/>
+      <c r="E58" s="86"/>
+      <c r="F58" s="114"/>
+      <c r="G58" s="115"/>
+      <c r="H58" s="116"/>
+      <c r="I58" s="115"/>
       <c r="J58" s="88"/>
       <c r="K58" s="88"/>
       <c r="L58" s="88"/>
@@ -8197,7 +7665,7 @@
     </row>
     <row r="59" spans="1:65" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59" s="109" t="s">
-        <v>22</v>
+        <v>147</v>
       </c>
       <c r="B59" s="110"/>
       <c r="C59" s="110"/>
@@ -8217,36 +7685,57 @@
         <f ca="1">IF(ISERROR(VALUE(SUBSTITUTE(OFFSET(A60,-1,0,1,1),".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A60,-1,0,1,1),".","`",1))),TEXT(VALUE(OFFSET(A60,-1,0,1,1))+1,"#"),TEXT(VALUE(LEFT(OFFSET(A60,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A60,-1,0,1,1),".","`",1))-1))+1,"#")))</f>
         <v>1</v>
       </c>
-      <c r="B60" s="112" t="s">
-        <v>23</v>
-      </c>
-      <c r="C60" s="112"/>
-      <c r="D60" s="113"/>
-      <c r="E60" s="86"/>
-      <c r="F60" s="114"/>
-      <c r="G60" s="115"/>
-      <c r="H60" s="116"/>
-      <c r="I60" s="115"/>
+      <c r="B60" s="119" t="s">
+        <v>28</v>
+      </c>
+      <c r="C60" s="119"/>
+      <c r="D60" s="120"/>
+      <c r="E60" s="121">
+        <f>MIN(E61:E64)</f>
+        <v>42095</v>
+      </c>
+      <c r="F60" s="121">
+        <f>MAX(F61:F64)</f>
+        <v>42111</v>
+      </c>
+      <c r="G60" s="115">
+        <f>IF(OR(F60=0,E60=0),0,F60-E60+1)</f>
+        <v>17</v>
+      </c>
+      <c r="H60" s="122"/>
+      <c r="I60" s="96">
+        <f>IF(OR(F60=0,E60=0),0,NETWORKDAYS(E60,F60))</f>
+        <v>13</v>
+      </c>
       <c r="J60" s="88"/>
       <c r="K60" s="88"/>
       <c r="L60" s="88"/>
       <c r="M60" s="88"/>
     </row>
     <row r="61" spans="1:65" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="90" t="str">
-        <f ca="1">IF(ISERROR(VALUE(SUBSTITUTE(OFFSET(A61,-1,0,1,1),".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A61,-1,0,1,1),".","`",1))),OFFSET(A61,-1,0,1,1)&amp;".1",LEFT(OFFSET(A61,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A61,-1,0,1,1),".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A61,-1,0,1,1),".","`",2))),VALUE(RIGHT(OFFSET(A61,-1,0,1,1),LEN(OFFSET(A61,-1,0,1,1))-FIND("`",SUBSTITUTE(OFFSET(A61,-1,0,1,1),".","`",1))))+1,VALUE(MID(OFFSET(A61,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A61,-1,0,1,1),".","`",1))+1,(FIND("`",SUBSTITUTE(OFFSET(A61,-1,0,1,1),".","`",2))-FIND("`",SUBSTITUTE(OFFSET(A61,-1,0,1,1),".","`",1))-1)))+1)))</f>
-        <v>1.1</v>
-      </c>
-      <c r="B61" s="117" t="s">
-        <v>14</v>
-      </c>
-      <c r="C61" s="117"/>
-      <c r="D61" s="113"/>
-      <c r="E61" s="86"/>
-      <c r="F61" s="114"/>
-      <c r="G61" s="115"/>
-      <c r="H61" s="116"/>
-      <c r="I61" s="115"/>
+      <c r="A61" s="123" t="s">
+        <v>26</v>
+      </c>
+      <c r="B61" s="119" t="s">
+        <v>27</v>
+      </c>
+      <c r="C61" s="119"/>
+      <c r="D61" s="120"/>
+      <c r="E61" s="92">
+        <v>42095</v>
+      </c>
+      <c r="F61" s="93">
+        <f>IF(G61=0,E61,E61+G61-1)</f>
+        <v>42095</v>
+      </c>
+      <c r="G61" s="94">
+        <v>1</v>
+      </c>
+      <c r="H61" s="95"/>
+      <c r="I61" s="96">
+        <f t="shared" ref="I61" si="31">IF(OR(F61=0,E61=0),0,NETWORKDAYS(E61,F61))</f>
+        <v>1</v>
+      </c>
       <c r="J61" s="88"/>
       <c r="K61" s="88"/>
       <c r="L61" s="88"/>
@@ -8254,19 +7743,29 @@
     </row>
     <row r="62" spans="1:65" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62" s="90" t="str">
-        <f ca="1">IF(ISERROR(VALUE(SUBSTITUTE(OFFSET(A62,-1,0,1,1),".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A62,-1,0,1,1),".","`",2))),OFFSET(A62,-1,0,1,1)&amp;".1",LEFT(OFFSET(A62,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A62,-1,0,1,1),".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A62,-1,0,1,1),".","`",3))),VALUE(RIGHT(OFFSET(A62,-1,0,1,1),LEN(OFFSET(A62,-1,0,1,1))-FIND("`",SUBSTITUTE(OFFSET(A62,-1,0,1,1),".","`",2))))+1,VALUE(MID(OFFSET(A62,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A62,-1,0,1,1),".","`",2))+1,(FIND("`",SUBSTITUTE(OFFSET(A62,-1,0,1,1),".","`",3))-FIND("`",SUBSTITUTE(OFFSET(A62,-1,0,1,1),".","`",2))-1)))+1)))</f>
-        <v>1.1.1</v>
-      </c>
-      <c r="B62" s="118" t="s">
-        <v>24</v>
+        <f ca="1">IF(ISERROR(VALUE(SUBSTITUTE(OFFSET(A62,-1,0,1,1),".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A62,-1,0,1,1),".","`",1))),OFFSET(A62,-1,0,1,1)&amp;".1",LEFT(OFFSET(A62,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A62,-1,0,1,1),".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A62,-1,0,1,1),".","`",2))),VALUE(RIGHT(OFFSET(A62,-1,0,1,1),LEN(OFFSET(A62,-1,0,1,1))-FIND("`",SUBSTITUTE(OFFSET(A62,-1,0,1,1),".","`",1))))+1,VALUE(MID(OFFSET(A62,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A62,-1,0,1,1),".","`",1))+1,(FIND("`",SUBSTITUTE(OFFSET(A62,-1,0,1,1),".","`",2))-FIND("`",SUBSTITUTE(OFFSET(A62,-1,0,1,1),".","`",1))-1)))+1)))</f>
+        <v>2.1</v>
+      </c>
+      <c r="B62" s="117" t="s">
+        <v>31</v>
       </c>
       <c r="C62" s="117"/>
-      <c r="D62" s="113"/>
-      <c r="E62" s="86"/>
-      <c r="F62" s="114"/>
-      <c r="G62" s="115"/>
-      <c r="H62" s="116"/>
-      <c r="I62" s="115"/>
+      <c r="D62" s="91"/>
+      <c r="E62" s="92">
+        <v>42095</v>
+      </c>
+      <c r="F62" s="93">
+        <f>IF(G62=0,E62,E62+G62-1)</f>
+        <v>42097</v>
+      </c>
+      <c r="G62" s="94">
+        <v>3</v>
+      </c>
+      <c r="H62" s="95"/>
+      <c r="I62" s="96">
+        <f>IF(OR(F62=0,E62=0),0,NETWORKDAYS(E62,F62))</f>
+        <v>3</v>
+      </c>
       <c r="J62" s="88"/>
       <c r="K62" s="88"/>
       <c r="L62" s="88"/>
@@ -8274,212 +7773,99 @@
     </row>
     <row r="63" spans="1:65" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63" s="90" t="str">
-        <f ca="1">IF(ISERROR(VALUE(SUBSTITUTE(OFFSET(A63,-1,0,1,1),".",""))),"0.0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A63,-1,0,1,1),".","`",3))),OFFSET(A63,-1,0,1,1)&amp;".1",LEFT(OFFSET(A63,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A63,-1,0,1,1),".","`",3)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A63,-1,0,1,1),".","`",4))),VALUE(RIGHT(OFFSET(A63,-1,0,1,1),LEN(OFFSET(A63,-1,0,1,1))-FIND("`",SUBSTITUTE(OFFSET(A63,-1,0,1,1),".","`",3))))+1,VALUE(MID(OFFSET(A63,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A63,-1,0,1,1),".","`",3))+1,(FIND("`",SUBSTITUTE(OFFSET(A63,-1,0,1,1),".","`",4))-FIND("`",SUBSTITUTE(OFFSET(A63,-1,0,1,1),".","`",3))-1)))+1)))</f>
-        <v>1.1.1.1</v>
-      </c>
-      <c r="B63" s="118" t="s">
-        <v>25</v>
+        <f ca="1">IF(ISERROR(VALUE(SUBSTITUTE(OFFSET(A63,-1,0,1,1),".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A63,-1,0,1,1),".","`",1))),OFFSET(A63,-1,0,1,1)&amp;".1",LEFT(OFFSET(A63,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A63,-1,0,1,1),".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A63,-1,0,1,1),".","`",2))),VALUE(RIGHT(OFFSET(A63,-1,0,1,1),LEN(OFFSET(A63,-1,0,1,1))-FIND("`",SUBSTITUTE(OFFSET(A63,-1,0,1,1),".","`",1))))+1,VALUE(MID(OFFSET(A63,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A63,-1,0,1,1),".","`",1))+1,(FIND("`",SUBSTITUTE(OFFSET(A63,-1,0,1,1),".","`",2))-FIND("`",SUBSTITUTE(OFFSET(A63,-1,0,1,1),".","`",1))-1)))+1)))</f>
+        <v>2.2</v>
+      </c>
+      <c r="B63" s="117" t="s">
+        <v>146</v>
       </c>
       <c r="C63" s="117"/>
-      <c r="D63" s="113"/>
-      <c r="E63" s="86"/>
-      <c r="F63" s="114"/>
-      <c r="G63" s="115"/>
-      <c r="H63" s="116"/>
-      <c r="I63" s="115"/>
+      <c r="D63" s="91"/>
+      <c r="E63" s="92">
+        <f>F62+1</f>
+        <v>42098</v>
+      </c>
+      <c r="F63" s="93">
+        <f t="shared" ref="F63:F64" si="32">IF(G63=0,E63,E63+G63-1)</f>
+        <v>42104</v>
+      </c>
+      <c r="G63" s="94">
+        <v>7</v>
+      </c>
+      <c r="H63" s="95"/>
+      <c r="I63" s="96">
+        <f t="shared" ref="I63:I64" si="33">IF(OR(F63=0,E63=0),0,NETWORKDAYS(E63,F63))</f>
+        <v>5</v>
+      </c>
       <c r="J63" s="88"/>
       <c r="K63" s="88"/>
       <c r="L63" s="88"/>
       <c r="M63" s="88"/>
     </row>
     <row r="64" spans="1:65" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="109" t="s">
-        <v>147</v>
-      </c>
-      <c r="B64" s="110"/>
-      <c r="C64" s="110"/>
-      <c r="D64" s="110"/>
-      <c r="E64" s="110"/>
-      <c r="F64" s="110"/>
-      <c r="G64" s="111"/>
-      <c r="H64" s="111"/>
-      <c r="I64" s="111"/>
+      <c r="A64" s="90" t="str">
+        <f ca="1">IF(ISERROR(VALUE(SUBSTITUTE(OFFSET(A64,-1,0,1,1),".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A64,-1,0,1,1),".","`",1))),OFFSET(A64,-1,0,1,1)&amp;".1",LEFT(OFFSET(A64,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A64,-1,0,1,1),".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A64,-1,0,1,1),".","`",2))),VALUE(RIGHT(OFFSET(A64,-1,0,1,1),LEN(OFFSET(A64,-1,0,1,1))-FIND("`",SUBSTITUTE(OFFSET(A64,-1,0,1,1),".","`",1))))+1,VALUE(MID(OFFSET(A64,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A64,-1,0,1,1),".","`",1))+1,(FIND("`",SUBSTITUTE(OFFSET(A64,-1,0,1,1),".","`",2))-FIND("`",SUBSTITUTE(OFFSET(A64,-1,0,1,1),".","`",1))-1)))+1)))</f>
+        <v>2.3</v>
+      </c>
+      <c r="B64" s="117" t="s">
+        <v>145</v>
+      </c>
+      <c r="C64" s="117"/>
+      <c r="D64" s="91"/>
+      <c r="E64" s="92">
+        <f>WORKDAY(F63,1)</f>
+        <v>42107</v>
+      </c>
+      <c r="F64" s="93">
+        <f t="shared" si="32"/>
+        <v>42111</v>
+      </c>
+      <c r="G64" s="94">
+        <v>5</v>
+      </c>
+      <c r="H64" s="95"/>
+      <c r="I64" s="96">
+        <f t="shared" si="33"/>
+        <v>5</v>
+      </c>
       <c r="J64" s="88"/>
       <c r="K64" s="88"/>
       <c r="L64" s="88"/>
       <c r="M64" s="88"/>
     </row>
-    <row r="65" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="90" t="str">
-        <f ca="1">IF(ISERROR(VALUE(SUBSTITUTE(OFFSET(A65,-1,0,1,1),".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A65,-1,0,1,1),".","`",1))),TEXT(VALUE(OFFSET(A65,-1,0,1,1))+1,"#"),TEXT(VALUE(LEFT(OFFSET(A65,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A65,-1,0,1,1),".","`",1))-1))+1,"#")))</f>
-        <v>1</v>
-      </c>
-      <c r="B65" s="119" t="s">
-        <v>28</v>
-      </c>
-      <c r="C65" s="119"/>
-      <c r="D65" s="120"/>
-      <c r="E65" s="121">
-        <f>MIN(E66:E69)</f>
-        <v>42095</v>
-      </c>
-      <c r="F65" s="121">
-        <f>MAX(F66:F69)</f>
-        <v>42111</v>
-      </c>
-      <c r="G65" s="115">
-        <f>IF(OR(F65=0,E65=0),0,F65-E65+1)</f>
-        <v>17</v>
-      </c>
-      <c r="H65" s="122"/>
-      <c r="I65" s="96">
-        <f>IF(OR(F65=0,E65=0),0,NETWORKDAYS(E65,F65))</f>
-        <v>13</v>
-      </c>
-      <c r="J65" s="88"/>
-      <c r="K65" s="88"/>
-      <c r="L65" s="88"/>
-      <c r="M65" s="88"/>
-    </row>
-    <row r="66" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="123" t="s">
-        <v>26</v>
-      </c>
-      <c r="B66" s="119" t="s">
-        <v>27</v>
-      </c>
-      <c r="C66" s="119"/>
-      <c r="D66" s="120"/>
-      <c r="E66" s="92">
-        <v>42095</v>
-      </c>
-      <c r="F66" s="93">
-        <f>IF(G66=0,E66,E66+G66-1)</f>
-        <v>42095</v>
-      </c>
-      <c r="G66" s="94">
-        <v>1</v>
-      </c>
-      <c r="H66" s="95"/>
-      <c r="I66" s="96">
-        <f t="shared" ref="I66" si="33">IF(OR(F66=0,E66=0),0,NETWORKDAYS(E66,F66))</f>
-        <v>1</v>
-      </c>
-      <c r="J66" s="88"/>
-      <c r="K66" s="88"/>
-      <c r="L66" s="88"/>
-      <c r="M66" s="88"/>
-    </row>
-    <row r="67" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="90" t="str">
-        <f ca="1">IF(ISERROR(VALUE(SUBSTITUTE(OFFSET(A67,-1,0,1,1),".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A67,-1,0,1,1),".","`",1))),OFFSET(A67,-1,0,1,1)&amp;".1",LEFT(OFFSET(A67,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A67,-1,0,1,1),".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A67,-1,0,1,1),".","`",2))),VALUE(RIGHT(OFFSET(A67,-1,0,1,1),LEN(OFFSET(A67,-1,0,1,1))-FIND("`",SUBSTITUTE(OFFSET(A67,-1,0,1,1),".","`",1))))+1,VALUE(MID(OFFSET(A67,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A67,-1,0,1,1),".","`",1))+1,(FIND("`",SUBSTITUTE(OFFSET(A67,-1,0,1,1),".","`",2))-FIND("`",SUBSTITUTE(OFFSET(A67,-1,0,1,1),".","`",1))-1)))+1)))</f>
-        <v>2.1</v>
-      </c>
-      <c r="B67" s="117" t="s">
-        <v>31</v>
-      </c>
-      <c r="C67" s="117"/>
-      <c r="D67" s="91"/>
-      <c r="E67" s="92">
-        <v>42095</v>
-      </c>
-      <c r="F67" s="93">
-        <f>IF(G67=0,E67,E67+G67-1)</f>
-        <v>42097</v>
-      </c>
-      <c r="G67" s="94">
-        <v>3</v>
-      </c>
-      <c r="H67" s="95"/>
-      <c r="I67" s="96">
-        <f>IF(OR(F67=0,E67=0),0,NETWORKDAYS(E67,F67))</f>
-        <v>3</v>
-      </c>
-      <c r="J67" s="88"/>
-      <c r="K67" s="88"/>
-      <c r="L67" s="88"/>
-      <c r="M67" s="88"/>
-    </row>
-    <row r="68" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="90" t="str">
-        <f ca="1">IF(ISERROR(VALUE(SUBSTITUTE(OFFSET(A68,-1,0,1,1),".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A68,-1,0,1,1),".","`",1))),OFFSET(A68,-1,0,1,1)&amp;".1",LEFT(OFFSET(A68,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A68,-1,0,1,1),".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A68,-1,0,1,1),".","`",2))),VALUE(RIGHT(OFFSET(A68,-1,0,1,1),LEN(OFFSET(A68,-1,0,1,1))-FIND("`",SUBSTITUTE(OFFSET(A68,-1,0,1,1),".","`",1))))+1,VALUE(MID(OFFSET(A68,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A68,-1,0,1,1),".","`",1))+1,(FIND("`",SUBSTITUTE(OFFSET(A68,-1,0,1,1),".","`",2))-FIND("`",SUBSTITUTE(OFFSET(A68,-1,0,1,1),".","`",1))-1)))+1)))</f>
-        <v>2.2</v>
-      </c>
-      <c r="B68" s="117" t="s">
-        <v>146</v>
-      </c>
-      <c r="C68" s="117"/>
-      <c r="D68" s="91"/>
-      <c r="E68" s="92">
-        <f>F67+1</f>
-        <v>42098</v>
-      </c>
-      <c r="F68" s="93">
-        <f t="shared" ref="F68:F69" si="34">IF(G68=0,E68,E68+G68-1)</f>
-        <v>42104</v>
-      </c>
-      <c r="G68" s="94">
-        <v>7</v>
-      </c>
-      <c r="H68" s="95"/>
-      <c r="I68" s="96">
-        <f t="shared" ref="I68:I69" si="35">IF(OR(F68=0,E68=0),0,NETWORKDAYS(E68,F68))</f>
-        <v>5</v>
-      </c>
-      <c r="J68" s="88"/>
-      <c r="K68" s="88"/>
-      <c r="L68" s="88"/>
-      <c r="M68" s="88"/>
-    </row>
-    <row r="69" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="90" t="str">
-        <f ca="1">IF(ISERROR(VALUE(SUBSTITUTE(OFFSET(A69,-1,0,1,1),".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A69,-1,0,1,1),".","`",1))),OFFSET(A69,-1,0,1,1)&amp;".1",LEFT(OFFSET(A69,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A69,-1,0,1,1),".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A69,-1,0,1,1),".","`",2))),VALUE(RIGHT(OFFSET(A69,-1,0,1,1),LEN(OFFSET(A69,-1,0,1,1))-FIND("`",SUBSTITUTE(OFFSET(A69,-1,0,1,1),".","`",1))))+1,VALUE(MID(OFFSET(A69,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A69,-1,0,1,1),".","`",1))+1,(FIND("`",SUBSTITUTE(OFFSET(A69,-1,0,1,1),".","`",2))-FIND("`",SUBSTITUTE(OFFSET(A69,-1,0,1,1),".","`",1))-1)))+1)))</f>
-        <v>2.3</v>
-      </c>
-      <c r="B69" s="117" t="s">
-        <v>145</v>
-      </c>
-      <c r="C69" s="117"/>
-      <c r="D69" s="91"/>
-      <c r="E69" s="92">
-        <f>WORKDAY(F68,1)</f>
-        <v>42107</v>
-      </c>
-      <c r="F69" s="93">
-        <f t="shared" si="34"/>
-        <v>42111</v>
-      </c>
-      <c r="G69" s="94">
-        <v>5</v>
-      </c>
-      <c r="H69" s="95"/>
-      <c r="I69" s="96">
-        <f t="shared" si="35"/>
-        <v>5</v>
-      </c>
-      <c r="J69" s="88"/>
-      <c r="K69" s="88"/>
-      <c r="L69" s="88"/>
-      <c r="M69" s="88"/>
-    </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A70" s="124"/>
-      <c r="B70" s="125"/>
-      <c r="C70" s="125"/>
-      <c r="D70" s="126"/>
-      <c r="E70" s="125"/>
-      <c r="F70" s="125"/>
-      <c r="G70" s="125"/>
-      <c r="H70" s="125"/>
-      <c r="I70" s="125"/>
-      <c r="J70" s="125"/>
-      <c r="K70" s="125"/>
-      <c r="L70" s="125"/>
-      <c r="M70" s="125"/>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A65" s="124"/>
+      <c r="B65" s="125"/>
+      <c r="C65" s="125"/>
+      <c r="D65" s="126"/>
+      <c r="E65" s="125"/>
+      <c r="F65" s="125"/>
+      <c r="G65" s="125"/>
+      <c r="H65" s="125"/>
+      <c r="I65" s="125"/>
+      <c r="J65" s="125"/>
+      <c r="K65" s="125"/>
+      <c r="L65" s="125"/>
+      <c r="M65" s="125"/>
     </row>
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="Gyg07Wicfuhr5ivKKRwD7m93lmrchT15p2Fi19Q/s/HmKRdOseyZf7dnsiPiO1gjIFLrp/RFUJ1zZow6dpbUng==" saltValue="UwcbeFYaIUQbeaRPJ0q4QQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" formatCells="0" formatColumns="0" formatRows="0" insertRows="0" deleteRows="0"/>
   <mergeCells count="24">
+    <mergeCell ref="BG5:BM5"/>
+    <mergeCell ref="BG6:BM6"/>
+    <mergeCell ref="AL6:AR6"/>
+    <mergeCell ref="AS5:AY5"/>
+    <mergeCell ref="AS6:AY6"/>
+    <mergeCell ref="AL5:AR5"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="AZ5:BF5"/>
+    <mergeCell ref="AZ6:BF6"/>
+    <mergeCell ref="X6:AD6"/>
+    <mergeCell ref="AE5:AK5"/>
+    <mergeCell ref="AE6:AK6"/>
+    <mergeCell ref="Q6:W6"/>
+    <mergeCell ref="J6:P6"/>
+    <mergeCell ref="X5:AD5"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="Q5:W5"/>
     <mergeCell ref="J5:P5"/>
@@ -8489,24 +7875,9 @@
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="J2:Z2"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="AZ5:BF5"/>
-    <mergeCell ref="AZ6:BF6"/>
-    <mergeCell ref="X6:AD6"/>
-    <mergeCell ref="AE5:AK5"/>
-    <mergeCell ref="AE6:AK6"/>
-    <mergeCell ref="Q6:W6"/>
-    <mergeCell ref="J6:P6"/>
-    <mergeCell ref="X5:AD5"/>
-    <mergeCell ref="BG5:BM5"/>
-    <mergeCell ref="BG6:BM6"/>
-    <mergeCell ref="AL6:AR6"/>
-    <mergeCell ref="AS5:AY5"/>
-    <mergeCell ref="AS6:AY6"/>
-    <mergeCell ref="AL5:AR5"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
-  <conditionalFormatting sqref="H67:H69 H8:H12 H15:H19 H30 H32:H34 H55:H65">
+  <conditionalFormatting sqref="H62:H64 H8:H12 H15:H19 H30 H32:H34 H50:H60">
     <cfRule type="dataBar" priority="39">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -8521,19 +7892,19 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J7:BM7">
-    <cfRule type="expression" dxfId="10" priority="40">
+    <cfRule type="expression" dxfId="6" priority="40">
       <formula>AND(TODAY()&gt;=J4,TODAY()&lt;K4)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J8:BM19 J55:M69 J30:BM49">
-    <cfRule type="expression" dxfId="9" priority="50">
+  <conditionalFormatting sqref="J8:BM19 J50:M64 J30:BM49">
+    <cfRule type="expression" dxfId="5" priority="50">
       <formula>J$4=TODAY()</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="68">
+    <cfRule type="expression" dxfId="4" priority="68">
       <formula>AND($E8&lt;K$4,$F8&gt;=J$4)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H66">
+  <conditionalFormatting sqref="H61">
     <cfRule type="dataBar" priority="34">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -8590,10 +7961,10 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J20:BM24">
-    <cfRule type="expression" dxfId="7" priority="21">
+    <cfRule type="expression" dxfId="3" priority="21">
       <formula>J$4=TODAY()</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="22">
+    <cfRule type="expression" dxfId="2" priority="22">
       <formula>AND($E20&lt;K$4,$F20&gt;=J$4)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8612,10 +7983,10 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J25:BM29">
-    <cfRule type="expression" dxfId="5" priority="18">
+    <cfRule type="expression" dxfId="1" priority="18">
       <formula>J$4=TODAY()</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="19">
+    <cfRule type="expression" dxfId="0" priority="19">
       <formula>AND($E25&lt;K$4,$F25&gt;=J$4)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8634,20 +8005,6 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H40:H44">
-    <cfRule type="dataBar" priority="8">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="1" tint="0.499984740745262"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{031E6079-1209-492C-A27C-1D0381931330}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H45:H49">
     <cfRule type="dataBar" priority="5">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -8675,15 +8032,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J50:BM54">
-    <cfRule type="expression" dxfId="3" priority="2">
-      <formula>J$4=TODAY()</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="2" priority="3">
-      <formula>AND($E50&lt;K$4,$F50&gt;=J$4)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H50:H54">
+  <conditionalFormatting sqref="H45:H49">
     <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -8705,8 +8054,8 @@
   <pageSetup scale="59" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <ignoredErrors>
-    <ignoredError sqref="E15:H15 A12 F65:I65 I66 A68:A69 B66 F66 A67 F67 H67:I67 F68:F69 I68:I69 E68:E69 E65 A65:B65 B64 E9:F9 H9:I9 E10:F10 F11 F12 E55:I64 F16 A8 A9 A10 A11 F19 A15 A16 A17 A18 A19 A55:B63 H16 F17 H17 F18 H18 H19" unlockedFormula="1"/>
-    <ignoredError sqref="A66" numberStoredAsText="1" unlockedFormula="1"/>
+    <ignoredError sqref="E15:H15 A12 F60:I60 I61 A63:A64 B61 F61 A62 F62 H62:I62 F63:F64 I63:I64 E63:E64 E60 A60:B60 B59 E9:F9 H9:I9 E10:F10 F11 F12 E50:I59 F16 A8 A9 A10 A11 F19 A15 A16 A17 A18 A19 A50:B58 H16 F17 H17 F18 H18 H19" unlockedFormula="1"/>
+    <ignoredError sqref="A61" numberStoredAsText="1" unlockedFormula="1"/>
   </ignoredErrors>
   <legacyDrawing r:id="rId2"/>
   <extLst>
@@ -8725,7 +8074,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H67:H69 H8:H12 H15:H19 H30 H32:H34 H55:H65</xm:sqref>
+          <xm:sqref>H62:H64 H8:H12 H15:H19 H30 H32:H34 H50:H60</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{5E3B0E97-54C6-4C3F-ADB1-A6BFE39A7A9C}">
@@ -8740,7 +8089,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H66</xm:sqref>
+          <xm:sqref>H61</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{958F470E-BBEF-443F-AD39-E9633AE02CBC}">
@@ -8818,7 +8167,7 @@
           <xm:sqref>H35:H39</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{031E6079-1209-492C-A27C-1D0381931330}">
+          <x14:cfRule type="dataBar" id="{51373796-A18E-45C0-A955-06F73F3A4B56}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -8831,21 +8180,6 @@
             </x14:dataBar>
           </x14:cfRule>
           <xm:sqref>H40:H44</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{51373796-A18E-45C0-A955-06F73F3A4B56}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>H45:H49</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{28FBEDD8-9AD2-419E-A0DA-71FECBCF6A7F}">
@@ -8875,7 +8209,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H50:H54</xm:sqref>
+          <xm:sqref>H45:H49</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -9124,10 +8458,10 @@
       <c r="C3" s="18"/>
     </row>
     <row r="4" spans="1:3" s="18" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="141" t="s">
+      <c r="A4" s="142" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="141"/>
+      <c r="B4" s="142"/>
     </row>
     <row r="5" spans="1:3" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B5" s="30" t="s">
@@ -9166,10 +8500,10 @@
     </row>
     <row r="15" spans="1:3" s="39" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="16" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="141" t="s">
+      <c r="A16" s="142" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="141"/>
+      <c r="B16" s="142"/>
     </row>
     <row r="17" spans="1:3" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B17" s="22" t="s">
@@ -9226,10 +8560,10 @@
       <c r="B26" s="21"/>
     </row>
     <row r="27" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="141" t="s">
+      <c r="A27" s="142" t="s">
         <v>46</v>
       </c>
-      <c r="B27" s="141"/>
+      <c r="B27" s="142"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B29" s="55" t="s">
@@ -9308,10 +8642,10 @@
     </row>
     <row r="46" spans="1:2" s="18" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="47" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="141" t="s">
+      <c r="A47" s="142" t="s">
         <v>17</v>
       </c>
-      <c r="B47" s="141"/>
+      <c r="B47" s="142"/>
     </row>
     <row r="48" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B48" s="45" t="s">
@@ -9408,10 +8742,10 @@
       <c r="B62" s="23"/>
     </row>
     <row r="63" spans="1:2" s="39" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A63" s="141" t="s">
+      <c r="A63" s="142" t="s">
         <v>90</v>
       </c>
-      <c r="B63" s="141"/>
+      <c r="B63" s="142"/>
     </row>
     <row r="64" spans="1:2" s="39" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B64" s="74" t="s">
@@ -9422,10 +8756,10 @@
       <c r="B65" s="23"/>
     </row>
     <row r="66" spans="1:2" s="39" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A66" s="141" t="s">
+      <c r="A66" s="142" t="s">
         <v>32</v>
       </c>
-      <c r="B66" s="141"/>
+      <c r="B66" s="142"/>
     </row>
     <row r="67" spans="1:2" s="39" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B67" s="74" t="s">
@@ -9436,10 +8770,10 @@
       <c r="B68" s="27"/>
     </row>
     <row r="69" spans="1:2" s="18" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A69" s="141" t="s">
+      <c r="A69" s="142" t="s">
         <v>15</v>
       </c>
-      <c r="B69" s="141"/>
+      <c r="B69" s="142"/>
     </row>
     <row r="70" spans="1:2" s="39" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A70" s="12" t="s">
